--- a/WP1/T1-1/geobasisdaten_filtered.xlsx
+++ b/WP1/T1-1/geobasisdaten_filtered.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxime.collombi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hessoit-my.sharepoint.com/personal/maxime_collombi_hes-so_ch/Documents/Bureau/FGDM4GS/WP1/T1-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD74FA93-95A4-4A67-8DC4-0621DB4DC150}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{AD74FA93-95A4-4A67-8DC4-0621DB4DC150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B0A3D43-5B61-45F0-B587-5C3A115936E2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="36740" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26685" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -342,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -386,6 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -509,9 +523,24 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau3" displayName="Tableau3" ref="A1:J31">
-  <autoFilter ref="A1:J31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:J31" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Lien"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Lien"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
     <sortCondition ref="A1:A31"/>
   </sortState>
@@ -748,24 +777,24 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -797,7 +826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -826,7 +855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -855,7 +884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -884,7 +913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -913,7 +942,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -942,7 +971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -971,7 +1000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +1029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1032,7 +1061,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1064,7 +1093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1093,7 +1122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1122,7 +1151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1151,7 +1180,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1180,7 +1209,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -1209,7 +1238,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1238,7 +1267,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
@@ -1270,7 +1299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1299,7 +1328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -1328,7 +1357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -1357,7 +1386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
@@ -1386,7 +1415,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
@@ -1415,7 +1444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
@@ -1444,7 +1473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>38</v>
       </c>
@@ -1473,7 +1502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>38</v>
       </c>
@@ -1502,7 +1531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
@@ -1518,7 +1547,7 @@
       <c r="E26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="9" t="s">
@@ -1531,7 +1560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
@@ -1563,7 +1592,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>57</v>
       </c>
@@ -1592,7 +1621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>57</v>
       </c>
@@ -1624,7 +1653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>61</v>
       </c>
@@ -1651,7 +1680,7 @@
       </c>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>61</v>
       </c>

--- a/WP1/T1-1/geobasisdaten_filtered.xlsx
+++ b/WP1/T1-1/geobasisdaten_filtered.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hessoit-my.sharepoint.com/personal/maxime_collombi_hes-so_ch/Documents/Bureau/FGDM4GS/WP1/T1-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{AD74FA93-95A4-4A67-8DC4-0621DB4DC150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B0A3D43-5B61-45F0-B587-5C3A115936E2}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{AD74FA93-95A4-4A67-8DC4-0621DB4DC150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB7DE1D4-A791-48E8-A2CB-8C32E7249949}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26685" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26625" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="70">
   <si>
     <t>autorité</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Plan sectoriel des transports Partie infrastructure route</t>
   </si>
   <si>
-    <t>72.1</t>
-  </si>
-  <si>
     <t>Réseau des routes principales</t>
   </si>
   <si>
@@ -220,13 +217,7 @@
     <t>Routes nationales</t>
   </si>
   <si>
-    <t>86.1</t>
-  </si>
-  <si>
     <t>Zones réservées</t>
-  </si>
-  <si>
-    <t>76.1</t>
   </si>
   <si>
     <t>swisstopo</t>
@@ -355,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -399,7 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -530,6 +520,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau3" displayName="Tableau3" ref="A1:J31">
   <autoFilter ref="A1:J31" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="xlsx"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7">
       <filters>
         <filter val="Lien"/>
@@ -777,7 +772,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,13 +812,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -855,12 +850,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="9">
         <v>177.1</v>
@@ -884,7 +879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -936,13 +931,13 @@
         <v>12</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -971,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1023,10 +1018,10 @@
         <v>12</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1055,13 +1050,13 @@
         <v>9</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1090,10 +1085,10 @@
         <v>9</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1122,7 +1117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1174,10 +1169,10 @@
         <v>12</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1203,10 +1198,10 @@
         <v>12</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1232,10 +1227,10 @@
         <v>12</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -1261,10 +1256,10 @@
         <v>12</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -1293,10 +1288,10 @@
         <v>9</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1322,10 +1317,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1444,7 +1439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
@@ -1480,8 +1475,8 @@
       <c r="B24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>50</v>
+      <c r="C24" s="9">
+        <v>72.099999999999994</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>9</v>
@@ -1507,10 +1502,10 @@
         <v>38</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>9</v>
@@ -1536,10 +1531,10 @@
         <v>38</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="C26" s="9">
+        <v>86.1</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>9</v>
@@ -1547,7 +1542,7 @@
       <c r="E26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="9" t="s">
@@ -1565,10 +1560,10 @@
         <v>38</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="C27" s="9">
+        <v>76.099999999999994</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>9</v>
@@ -1589,15 +1584,15 @@
         <v>9</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C28" s="9">
         <v>185.1</v>
@@ -1615,21 +1610,21 @@
         <v>12</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>9</v>
@@ -1647,18 +1642,18 @@
         <v>9</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C30" s="9">
         <v>165.2</v>
@@ -1676,16 +1671,16 @@
         <v>12</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="9">
         <v>165.1</v>
@@ -1703,7 +1698,7 @@
         <v>12</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I31" s="14"/>
     </row>

--- a/WP1/T1-1/geobasisdaten_filtered.xlsx
+++ b/WP1/T1-1/geobasisdaten_filtered.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hessoit-my.sharepoint.com/personal/maxime_collombi_hes-so_ch/Documents/Bureau/FGDM4GS/WP1/T1-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{AD74FA93-95A4-4A67-8DC4-0621DB4DC150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB7DE1D4-A791-48E8-A2CB-8C32E7249949}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{AD74FA93-95A4-4A67-8DC4-0621DB4DC150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA9883BF-8009-40E2-B8DF-F0E4665DCFD9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26625" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30135" windowHeight="20490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -390,6 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -513,13 +514,17 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau3" displayName="Tableau3" ref="A1:J31">
   <autoFilter ref="A1:J31" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="16.1;_x000a_17.1"/>
+        <filter val="72.1"/>
+        <filter val="76.1"/>
+        <filter val="86.1"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6">
       <filters>
         <filter val="xlsx"/>
@@ -770,26 +775,26 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -821,7 +826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -850,7 +855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -879,7 +884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -908,7 +913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -937,7 +942,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -966,7 +971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -995,7 +1000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1029,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1056,7 +1061,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1088,7 +1093,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1117,7 +1122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1146,7 +1151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1175,7 +1180,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1262,7 +1267,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
@@ -1294,7 +1299,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1323,7 +1328,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -1352,7 +1357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -1381,7 +1386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
@@ -1439,7 +1444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
@@ -1468,7 +1473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>38</v>
       </c>
@@ -1484,7 +1489,7 @@
       <c r="E24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="9" t="s">
@@ -1497,7 +1502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>38</v>
       </c>
@@ -1526,7 +1531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
@@ -1548,14 +1553,14 @@
       <c r="G26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="15" t="s">
         <v>9</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
@@ -1587,7 +1592,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
@@ -1616,7 +1621,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>54</v>
       </c>
@@ -1648,7 +1653,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
@@ -1675,7 +1680,7 @@
       </c>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>58</v>
       </c>

--- a/WP1/T1-1/geobasisdaten_filtered.xlsx
+++ b/WP1/T1-1/geobasisdaten_filtered.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hessoit-my.sharepoint.com/personal/maxime_collombi_hes-so_ch/Documents/Bureau/FGDM4GS/WP1/T1-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{AD74FA93-95A4-4A67-8DC4-0621DB4DC150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA9883BF-8009-40E2-B8DF-F0E4665DCFD9}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{AD74FA93-95A4-4A67-8DC4-0621DB4DC150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CAFC586-B333-4FBD-AFBC-FE321DECB1FF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30135" windowHeight="20490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="36070" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="71">
   <si>
     <t>autorité</t>
   </si>
@@ -271,6 +271,13 @@
   </si>
   <si>
     <t>RequestNotAllowed</t>
+  </si>
+  <si>
+    <t>Note: toutes les couches suivantes sont liées au MGDM
+ch.astra.ivs-nat,
+ch.astra.ivs-nat_abgrenzungen,
+ch.astra.ivs-nat_wegbegleiter,
+ch.astra.ivs-nat-verlaeufe</t>
   </si>
 </sst>
 </file>
@@ -346,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -391,6 +398,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -512,6 +522,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -774,27 +788,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="122" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -826,7 +840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -855,7 +869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -884,7 +898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -913,7 +927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -942,7 +956,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -971,7 +985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +1014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1029,7 +1043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1061,7 +1075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1093,7 +1107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1122,7 +1136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1151,7 +1165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1180,7 +1194,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1209,7 +1223,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -1238,7 +1252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1267,7 +1281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
@@ -1299,7 +1313,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1328,7 +1342,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -1357,7 +1371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -1386,7 +1400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
@@ -1415,7 +1429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
@@ -1443,8 +1457,11 @@
       <c r="I22" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
@@ -1473,7 +1490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>38</v>
       </c>
@@ -1502,7 +1519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>38</v>
       </c>
@@ -1531,7 +1548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
@@ -1560,7 +1577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
@@ -1592,7 +1609,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
@@ -1621,7 +1638,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>54</v>
       </c>
@@ -1653,7 +1670,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
@@ -1680,7 +1697,7 @@
       </c>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>58</v>
       </c>

--- a/WP1/T1-1/geobasisdaten_filtered.xlsx
+++ b/WP1/T1-1/geobasisdaten_filtered.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{AD74FA93-95A4-4A67-8DC4-0621DB4DC150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CAFC586-B333-4FBD-AFBC-FE321DECB1FF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="36070" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="35960" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -791,24 +791,24 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="122" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -840,7 +840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -869,7 +869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -898,7 +898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -927,7 +927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -956,7 +956,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -985,7 +985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>38</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>38</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>54</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>58</v>
       </c>
